--- a/common/src/main/webapp/imports/export-陈红-48.xlsx
+++ b/common/src/main/webapp/imports/export-陈红-48.xlsx
@@ -1511,12 +1511,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1542,12 +1541,111 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1569,75 +1667,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1659,40 +1689,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1704,13 +1703,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1722,31 +1793,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,31 +1811,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,13 +1829,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1824,37 +1853,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,24 +1887,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1898,11 +1897,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1946,41 +1971,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1995,156 +1985,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2159,17 +2158,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2527,8 +2519,8 @@
   <sheetPr/>
   <dimension ref="A1:AE48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" zeroHeight="1"/>
@@ -2561,47 +2553,47 @@
     <col min="30" max="30" width="37" style="2" customWidth="1"/>
     <col min="31" max="31" width="100.666666666667" style="2" customWidth="1"/>
     <col min="32" max="16383" width="8.88333333333333" style="2" hidden="1"/>
-    <col min="16384" max="16384" width="0" style="2"/>
+    <col min="16384" max="16384" width="0" style="2" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:31">
-      <c r="A1" s="2">
+      <c r="A1" s="5">
         <v>147520019</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -2636,43 +2628,43 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:31">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>847</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -2707,40 +2699,41 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:31">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>820</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -2775,43 +2768,43 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:31">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>734664316</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="5">
         <v>9.12101137346643e+17</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -2846,43 +2839,43 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:31">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>846</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -2917,43 +2910,43 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:31">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>823</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>65</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -2988,43 +2981,43 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:31">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>854</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F7" s="5">
         <v>9.12101137555005e+17</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -3059,43 +3052,43 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:31">
-      <c r="A8" s="2">
+      <c r="A8" s="5">
         <v>882</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -3130,43 +3123,43 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:31">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>764360081</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>101</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="2" t="s">
@@ -3201,43 +3194,43 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:31">
-      <c r="A10" s="2">
+      <c r="A10" s="5">
         <v>883</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="2" t="s">
@@ -3272,43 +3265,43 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:31">
-      <c r="A11" s="2">
+      <c r="A11" s="5">
         <v>774831027</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="2" t="s">
@@ -3340,43 +3333,43 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:31">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>818</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>136</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="2" t="s">
@@ -3411,40 +3404,41 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:31">
-      <c r="A13" s="2">
+      <c r="A13" s="5">
         <v>851</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="2" t="s">
@@ -3479,43 +3473,43 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:31">
-      <c r="A14" s="2">
+      <c r="A14" s="5">
         <v>819</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>158</v>
       </c>
       <c r="F14" s="5">
         <v>9.12101130791457e+17</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="2" t="s">
@@ -3547,43 +3541,43 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:31">
-      <c r="A15" s="2">
+      <c r="A15" s="5">
         <v>832</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>101</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O15" s="2" t="s">
@@ -3618,43 +3612,43 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:31">
-      <c r="A16" s="2">
+      <c r="A16" s="5">
         <v>825</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="5">
         <v>9.12101137020243e+17</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O16" s="2" t="s">
@@ -3689,43 +3683,43 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:31">
-      <c r="A17" s="2">
+      <c r="A17" s="5">
         <v>679543844</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="5" t="s">
         <v>185</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O17" s="2" t="s">
@@ -3760,40 +3754,41 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:31">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>798477691</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O18" s="2" t="s">
@@ -3825,43 +3820,43 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:31">
-      <c r="A19" s="2">
+      <c r="A19" s="5">
         <v>844</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="5" t="s">
         <v>206</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O19" s="2" t="s">
@@ -3896,43 +3891,43 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:31">
-      <c r="A20" s="2">
+      <c r="A20" s="5">
         <v>878</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="5" t="s">
         <v>218</v>
       </c>
       <c r="F20" s="5">
         <v>9.12101137695565e+17</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O20" s="2" t="s">
@@ -3967,43 +3962,43 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:31">
-      <c r="A21" s="2">
+      <c r="A21" s="5">
         <v>764380381</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="5" t="s">
         <v>227</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O21" s="2" t="s">
@@ -4038,43 +4033,43 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:31">
-      <c r="A22" s="2">
+      <c r="A22" s="5">
         <v>720925183</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="5" t="s">
         <v>238</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O22" s="2" t="s">
@@ -4109,43 +4104,43 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:31">
-      <c r="A23" s="2">
+      <c r="A23" s="5">
         <v>827</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O23" s="2" t="s">
@@ -4180,43 +4175,43 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:31">
-      <c r="A24" s="2">
+      <c r="A24" s="5">
         <v>831</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="5" t="s">
         <v>263</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O24" s="2" t="s">
@@ -4251,43 +4246,43 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:31">
-      <c r="A25" s="2">
+      <c r="A25" s="5">
         <v>821</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="5" t="s">
         <v>276</v>
       </c>
       <c r="F25" s="5">
         <v>9.12101127600698e+17</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="K25" s="8" t="s">
+      <c r="K25" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O25" s="2" t="s">
@@ -4322,43 +4317,43 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:31">
-      <c r="A26" s="2">
+      <c r="A26" s="5">
         <v>578355510</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="5" t="s">
         <v>285</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="K26" s="8" t="s">
+      <c r="K26" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O26" s="2" t="s">
@@ -4393,43 +4388,43 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:31">
-      <c r="A27" s="2">
+      <c r="A27" s="5">
         <v>396173193</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="5" t="s">
         <v>124</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O27" s="2" t="s">
@@ -4464,43 +4459,43 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:31">
-      <c r="A28" s="2">
+      <c r="A28" s="5">
         <v>734666725</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="5">
         <v>9.12101137346667e+16</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="K28" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O28" s="2" t="s">
@@ -4535,43 +4530,43 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:31">
-      <c r="A29" s="2">
+      <c r="A29" s="5">
         <v>849</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="5" t="s">
         <v>314</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="K29" s="8" t="s">
+      <c r="K29" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O29" s="2" t="s">
@@ -4606,43 +4601,43 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:31">
-      <c r="A30" s="2">
+      <c r="A30" s="5">
         <v>841</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="5" t="s">
         <v>136</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="K30" s="8" t="s">
+      <c r="K30" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O30" s="2" t="s">
@@ -4677,43 +4672,43 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:31">
-      <c r="A31" s="2">
+      <c r="A31" s="5">
         <v>836</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="K31" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O31" s="2" t="s">
@@ -4748,43 +4743,43 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:31">
-      <c r="A32" s="2">
+      <c r="A32" s="5">
         <v>824</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="5" t="s">
         <v>101</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="K32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O32" s="2" t="s">
@@ -4819,43 +4814,43 @@
       </c>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:31">
-      <c r="A33" s="1">
+      <c r="A33" s="7">
         <v>816</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="7" t="s">
         <v>136</v>
       </c>
       <c r="F33" s="7">
         <v>9.12101066874858e+17</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="O33" s="1" t="s">
@@ -4897,40 +4892,41 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:31">
-      <c r="A34" s="2">
+      <c r="A34" s="5">
         <v>837</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
         <v>65</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="K34" s="8" t="s">
+      <c r="K34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O34" s="2" t="s">
@@ -4959,43 +4955,43 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:31">
-      <c r="A35" s="2">
+      <c r="A35" s="5">
         <v>833</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O35" s="2" t="s">
@@ -5030,43 +5026,43 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:31">
-      <c r="A36" s="2">
+      <c r="A36" s="5">
         <v>711100200</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="5" t="s">
         <v>378</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O36" s="2" t="s">
@@ -5101,43 +5097,43 @@
       </c>
     </row>
     <row r="37" customHeight="1" spans="1:31">
-      <c r="A37" s="2">
+      <c r="A37" s="5">
         <v>760053869</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="5" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O37" s="2" t="s">
@@ -5172,43 +5168,43 @@
       </c>
     </row>
     <row r="38" customHeight="1" spans="1:31">
-      <c r="A38" s="2">
+      <c r="A38" s="5">
         <v>871</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O38" s="2" t="s">
@@ -5246,43 +5242,43 @@
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:31">
-      <c r="A39" s="2">
+      <c r="A39" s="5">
         <v>798452080</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="5" t="s">
         <v>158</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O39" s="2" t="s">
@@ -5317,43 +5313,43 @@
       </c>
     </row>
     <row r="40" customHeight="1" spans="1:31">
-      <c r="A40" s="2">
+      <c r="A40" s="5">
         <v>863</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="5" t="s">
         <v>20</v>
       </c>
       <c r="F40" s="5">
         <v>9.1210103765407e+17</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O40" s="2" t="s">
@@ -5385,43 +5381,43 @@
       </c>
     </row>
     <row r="41" customHeight="1" spans="1:31">
-      <c r="A41" s="2">
+      <c r="A41" s="5">
         <v>749771528</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="5" t="s">
         <v>426</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O41" s="2" t="s">
@@ -5456,43 +5452,43 @@
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:31">
-      <c r="A42" s="2">
+      <c r="A42" s="5">
         <v>830</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="5" t="s">
         <v>32</v>
       </c>
       <c r="F42" s="5">
         <v>9.12101135599677e+17</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O42" s="2" t="s">
@@ -5527,43 +5523,43 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:31">
-      <c r="A43" s="2">
+      <c r="A43" s="5">
         <v>589359218</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="5" t="s">
         <v>426</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="J43" s="8" t="s">
+      <c r="J43" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O43" s="2" t="s">
@@ -5598,43 +5594,43 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:31">
-      <c r="A44" s="2">
+      <c r="A44" s="5">
         <v>845</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="5" t="s">
         <v>457</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O44" s="2" t="s">
@@ -5669,43 +5665,43 @@
       </c>
     </row>
     <row r="45" customHeight="1" spans="1:31">
-      <c r="A45" s="2">
+      <c r="A45" s="5">
         <v>397752875</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="5" t="s">
         <v>426</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="K45" s="8" t="s">
+      <c r="K45" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O45" s="2" t="s">
@@ -5740,40 +5736,41 @@
       </c>
     </row>
     <row r="46" customHeight="1" spans="1:31">
-      <c r="A46" s="2">
+      <c r="A46" s="5">
         <v>852</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="5" t="s">
         <v>474</v>
       </c>
+      <c r="E46" s="5"/>
       <c r="F46" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="K46" s="8" t="s">
+      <c r="K46" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O46" s="2" t="s">
@@ -5808,43 +5805,43 @@
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:31">
-      <c r="A47" s="2">
+      <c r="A47" s="5">
         <v>746455335</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="5" t="s">
         <v>285</v>
       </c>
       <c r="F47" s="5">
         <v>9.12101007464553e+17</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="K47" s="8" t="s">
+      <c r="K47" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O47" s="2" t="s">
@@ -5879,43 +5876,43 @@
       </c>
     </row>
     <row r="48" customHeight="1" spans="1:31">
-      <c r="A48" s="2">
+      <c r="A48" s="5">
         <v>880</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="5" t="s">
         <v>276</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="K48" s="8" t="s">
+      <c r="K48" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="5" t="s">
         <v>10</v>
       </c>
       <c r="O48" s="2" t="s">

--- a/common/src/main/webapp/imports/export-陈红-48.xlsx
+++ b/common/src/main/webapp/imports/export-陈红-48.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workspace\grailslm01\common\src\main\webapp\imports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="8850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="508">
   <si>
     <t>中天建设集团有限公司</t>
   </si>
@@ -1505,19 +1510,57 @@
   </si>
   <si>
     <t>货物专用运输（罐式、泵式）；商品混凝土、混凝土构件、混凝土制品、商品砂浆、商品混凝土外加剂生产、销售</t>
+  </si>
+  <si>
+    <t>912101137346643000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>912101137020243000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>912101130791457000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>912101137695565000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>912101127600698000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>91210113734666700</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>912101066874858000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>912101037654070000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>912101135599677000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>912101007464553000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>912101137555005000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="0"/>
@@ -1538,357 +1581,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1896,254 +1615,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2152,79 +1629,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal" xfId="49"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2511,89 +1948,89 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AE48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.66666666666667" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.4416666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.775" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.2166666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="31.4416666666667" style="3" customWidth="1"/>
-    <col min="7" max="7" width="51.4416666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="49.3333333333333" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26" style="4" customWidth="1"/>
-    <col min="10" max="10" width="25.8833333333333" style="4" customWidth="1"/>
-    <col min="11" max="11" width="22.2166666666667" style="2" customWidth="1"/>
-    <col min="12" max="12" width="35.3333333333333" style="2" customWidth="1"/>
-    <col min="13" max="13" width="22.3333333333333" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.1083333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.4416666666667" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.775" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.775" style="2" customWidth="1"/>
-    <col min="18" max="18" width="25.2166666666667" style="2" customWidth="1"/>
-    <col min="19" max="22" width="13.6666666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.88333333333333" style="2" customWidth="1"/>
-    <col min="24" max="24" width="50.6666666666667" style="2" customWidth="1"/>
-    <col min="25" max="26" width="10.3333333333333" style="2" customWidth="1"/>
-    <col min="27" max="27" width="113.441666666667" style="2" customWidth="1"/>
-    <col min="28" max="28" width="49.5583333333333" style="2" customWidth="1"/>
-    <col min="29" max="29" width="34.6666666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="59.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="51.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="49.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="26" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="35.375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="25.25" style="2" customWidth="1"/>
+    <col min="19" max="22" width="13.625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.875" style="2" customWidth="1"/>
+    <col min="24" max="24" width="50.625" style="2" customWidth="1"/>
+    <col min="25" max="26" width="10.375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="113.5" style="2" customWidth="1"/>
+    <col min="28" max="28" width="49.5" style="2" customWidth="1"/>
+    <col min="29" max="29" width="34.625" style="2" customWidth="1"/>
     <col min="30" max="30" width="37" style="2" customWidth="1"/>
-    <col min="31" max="31" width="100.666666666667" style="2" customWidth="1"/>
-    <col min="32" max="16383" width="8.88333333333333" style="2" hidden="1"/>
+    <col min="31" max="31" width="100.625" style="2" customWidth="1"/>
+    <col min="32" max="16383" width="8.875" style="2" hidden="1"/>
     <col min="16384" max="16384" width="0" style="2" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:31">
-      <c r="A1" s="5">
+    <row r="1" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4">
         <v>147520019</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -2627,44 +2064,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:31">
-      <c r="A2" s="5">
+    <row r="2" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
         <v>847</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -2698,42 +2135,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:31">
-      <c r="A3" s="5">
+    <row r="3" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>820</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -2767,44 +2204,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:31">
-      <c r="A4" s="5">
+    <row r="4" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
         <v>734664316</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="5">
-        <v>9.12101137346643e+17</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -2838,44 +2275,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:31">
-      <c r="A5" s="5">
+    <row r="5" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
         <v>846</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -2909,44 +2346,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:31">
-      <c r="A6" s="5">
+    <row r="6" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
         <v>823</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -2980,44 +2417,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:31">
-      <c r="A7" s="5">
+    <row r="7" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
         <v>854</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="5">
-        <v>9.12101137555005e+17</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -3051,44 +2488,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:31">
-      <c r="A8" s="5">
+    <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
         <v>882</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -3122,44 +2559,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:31">
-      <c r="A9" s="5">
+    <row r="9" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
         <v>764360081</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="2" t="s">
@@ -3193,44 +2630,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:31">
-      <c r="A10" s="5">
+    <row r="10" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
         <v>883</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="2" t="s">
@@ -3264,44 +2701,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:31">
-      <c r="A11" s="5">
+    <row r="11" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
         <v>774831027</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O11" s="2" t="s">
@@ -3332,44 +2769,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:31">
-      <c r="A12" s="5">
+    <row r="12" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
         <v>818</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O12" s="2" t="s">
@@ -3403,42 +2840,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:31">
-      <c r="A13" s="5">
+    <row r="13" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4">
         <v>851</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O13" s="2" t="s">
@@ -3472,44 +2909,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:31">
-      <c r="A14" s="5">
+    <row r="14" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
         <v>819</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="5">
-        <v>9.12101130791457e+17</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O14" s="2" t="s">
@@ -3540,44 +2977,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:31">
-      <c r="A15" s="5">
+    <row r="15" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4">
         <v>832</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O15" s="2" t="s">
@@ -3611,44 +3048,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:31">
-      <c r="A16" s="5">
+    <row r="16" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
         <v>825</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F16" s="5">
-        <v>9.12101137020243e+17</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O16" s="2" t="s">
@@ -3682,44 +3119,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:31">
-      <c r="A17" s="5">
+    <row r="17" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4">
         <v>679543844</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O17" s="2" t="s">
@@ -3753,42 +3190,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:31">
-      <c r="A18" s="5">
+    <row r="18" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
         <v>798477691</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O18" s="2" t="s">
@@ -3819,44 +3256,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:31">
-      <c r="A19" s="5">
+    <row r="19" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4">
         <v>844</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O19" s="2" t="s">
@@ -3890,44 +3327,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:31">
-      <c r="A20" s="5">
+    <row r="20" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
         <v>878</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="5">
-        <v>9.12101137695565e+17</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O20" s="2" t="s">
@@ -3961,44 +3398,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:31">
-      <c r="A21" s="5">
+    <row r="21" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
         <v>764380381</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O21" s="2" t="s">
@@ -4032,44 +3469,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:31">
-      <c r="A22" s="5">
+    <row r="22" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
         <v>720925183</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O22" s="2" t="s">
@@ -4103,44 +3540,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:31">
-      <c r="A23" s="5">
+    <row r="23" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4">
         <v>827</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O23" s="2" t="s">
@@ -4174,44 +3611,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:31">
-      <c r="A24" s="5">
+    <row r="24" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
         <v>831</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O24" s="2" t="s">
@@ -4245,44 +3682,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:31">
-      <c r="A25" s="5">
+    <row r="25" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
         <v>821</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F25" s="5">
-        <v>9.12101127600698e+17</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="F25" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O25" s="2" t="s">
@@ -4316,44 +3753,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:31">
-      <c r="A26" s="5">
+    <row r="26" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
         <v>578355510</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O26" s="2" t="s">
@@ -4387,44 +3824,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:31">
-      <c r="A27" s="5">
+    <row r="27" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4">
         <v>396173193</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O27" s="2" t="s">
@@ -4458,44 +3895,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:31">
-      <c r="A28" s="5">
+    <row r="28" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
         <v>734666725</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="5">
-        <v>9.12101137346667e+16</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O28" s="2" t="s">
@@ -4529,44 +3966,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:31">
-      <c r="A29" s="5">
+    <row r="29" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
         <v>849</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O29" s="2" t="s">
@@ -4600,44 +4037,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:31">
-      <c r="A30" s="5">
+    <row r="30" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
         <v>841</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O30" s="2" t="s">
@@ -4671,44 +4108,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:31">
-      <c r="A31" s="5">
+    <row r="31" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
         <v>836</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O31" s="2" t="s">
@@ -4742,44 +4179,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:31">
-      <c r="A32" s="5">
+    <row r="32" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
         <v>824</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="J32" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O32" s="2" t="s">
@@ -4813,44 +4250,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:31">
-      <c r="A33" s="7">
+    <row r="33" spans="1:31" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6">
         <v>816</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="7">
-        <v>9.12101066874858e+17</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="L33" s="7" t="s">
+      <c r="L33" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O33" s="1" t="s">
@@ -4891,42 +4328,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:31">
-      <c r="A34" s="5">
+    <row r="34" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
         <v>837</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="J34" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O34" s="2" t="s">
@@ -4954,44 +4391,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:31">
-      <c r="A35" s="5">
+    <row r="35" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="4">
         <v>833</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J35" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O35" s="2" t="s">
@@ -5025,44 +4462,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:31">
-      <c r="A36" s="5">
+    <row r="36" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
         <v>711100200</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J36" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O36" s="2" t="s">
@@ -5096,44 +4533,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:31">
-      <c r="A37" s="5">
+    <row r="37" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="4">
         <v>760053869</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="J37" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O37" s="2" t="s">
@@ -5167,44 +4604,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:31">
-      <c r="A38" s="5">
+    <row r="38" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
         <v>871</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="J38" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O38" s="2" t="s">
@@ -5241,44 +4678,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:31">
-      <c r="A39" s="5">
+    <row r="39" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="4">
         <v>798452080</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O39" s="2" t="s">
@@ -5312,44 +4749,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:31">
-      <c r="A40" s="5">
+    <row r="40" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
         <v>863</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="E40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="5">
-        <v>9.1210103765407e+17</v>
-      </c>
-      <c r="G40" s="5" t="s">
+      <c r="F40" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="J40" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O40" s="2" t="s">
@@ -5380,44 +4817,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:31">
-      <c r="A41" s="5">
+    <row r="41" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="4">
         <v>749771528</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="J41" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O41" s="2" t="s">
@@ -5451,44 +4888,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:31">
-      <c r="A42" s="5">
+    <row r="42" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
         <v>830</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="5">
-        <v>9.12101135599677e+17</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="F42" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J42" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O42" s="2" t="s">
@@ -5522,44 +4959,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:31">
-      <c r="A43" s="5">
+    <row r="43" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="4">
         <v>589359218</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="J43" s="5" t="s">
+      <c r="J43" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O43" s="2" t="s">
@@ -5593,44 +5030,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:31">
-      <c r="A44" s="5">
+    <row r="44" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4">
         <v>845</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="J44" s="5" t="s">
+      <c r="J44" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O44" s="2" t="s">
@@ -5664,44 +5101,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:31">
-      <c r="A45" s="5">
+    <row r="45" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="4">
         <v>397752875</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J45" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="M45" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O45" s="2" t="s">
@@ -5735,42 +5172,42 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:31">
-      <c r="A46" s="5">
+    <row r="46" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4">
         <v>852</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5" t="s">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="J46" s="5" t="s">
+      <c r="J46" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O46" s="2" t="s">
@@ -5804,44 +5241,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:31">
-      <c r="A47" s="5">
+    <row r="47" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="4">
         <v>746455335</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="F47" s="5">
-        <v>9.12101007464553e+17</v>
-      </c>
-      <c r="G47" s="5" t="s">
+      <c r="F47" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="J47" s="5" t="s">
+      <c r="J47" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O47" s="2" t="s">
@@ -5875,44 +5312,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:31">
-      <c r="A48" s="5">
+    <row r="48" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
         <v>880</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="J48" s="5" t="s">
+      <c r="J48" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L48" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O48" s="2" t="s">
@@ -5950,8 +5387,8 @@
   <sortState ref="A3:T49">
     <sortCondition ref="S1"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>